--- a/captainJackSparrow/TestData/test_data.xlsx
+++ b/captainJackSparrow/TestData/test_data.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="12">
   <si>
     <t>website</t>
   </si>
@@ -480,10 +480,10 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B3" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
         <v>9</v>

--- a/captainJackSparrow/TestData/test_data.xlsx
+++ b/captainJackSparrow/TestData/test_data.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1411" uniqueCount="12">
   <si>
     <t>website</t>
   </si>
@@ -480,10 +480,10 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C3" t="s">
         <v>9</v>

--- a/captainJackSparrow/TestData/test_data.xlsx
+++ b/captainJackSparrow/TestData/test_data.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1411" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1555" uniqueCount="12">
   <si>
     <t>website</t>
   </si>

--- a/captainJackSparrow/TestData/test_data.xlsx
+++ b/captainJackSparrow/TestData/test_data.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1555" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1717" uniqueCount="12">
   <si>
     <t>website</t>
   </si>
